--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Procura</t>
   </si>
   <si>
@@ -98,6 +110,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -360,6 +375,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -445,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -457,6 +475,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -478,265 +497,307 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -758,2345 +819,2699 @@
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,70 +32,73 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Procura</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>41-bis</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Procura</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>41-bis</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -820,2698 +823,2698 @@
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Procura</t>
@@ -380,7 +380,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -478,7 +478,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -466,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1202,7 +1208,7 @@
         <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>46</v>
@@ -1294,7 +1300,7 @@
         <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>46</v>
@@ -1409,7 +1415,7 @@
         <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>46</v>
@@ -1481,10 +1487,10 @@
         <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1498,13 +1504,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>94</v>
@@ -1518,22 +1524,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>33</v>
@@ -1541,22 +1547,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>33</v>
@@ -1564,19 +1570,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1587,19 +1593,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1610,19 +1616,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1633,19 +1639,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1656,19 +1662,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1679,22 +1685,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>33</v>
@@ -1702,22 +1708,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>33</v>
@@ -1725,22 +1731,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>33</v>
@@ -1748,22 +1754,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>33</v>
@@ -1771,22 +1777,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>33</v>
@@ -1794,19 +1800,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1823,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1840,19 +1846,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1863,22 +1869,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>33</v>
@@ -1886,19 +1892,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1909,19 +1915,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>20</v>
@@ -1932,22 +1938,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>33</v>
@@ -1955,22 +1961,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>33</v>
@@ -1978,22 +1984,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>33</v>
@@ -2001,19 +2007,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2024,22 +2030,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>33</v>
@@ -2047,19 +2053,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2070,22 +2076,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>33</v>
@@ -2093,19 +2099,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2116,19 +2122,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2139,19 +2145,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2162,19 +2168,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2185,22 +2191,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>33</v>
@@ -2208,19 +2214,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2231,19 +2237,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>20</v>
@@ -2254,19 +2260,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2277,22 +2283,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>33</v>
@@ -2300,22 +2306,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>33</v>
@@ -2323,19 +2329,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2346,19 +2352,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2369,22 +2375,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>33</v>
@@ -2392,19 +2398,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2415,22 +2421,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>33</v>
@@ -2438,19 +2444,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>20</v>
@@ -2461,19 +2467,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2484,22 +2490,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>33</v>
@@ -2507,22 +2513,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>33</v>
@@ -2533,16 +2539,16 @@
         <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2556,7 +2562,7 @@
         <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>19</v>
@@ -2565,7 +2571,7 @@
         <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2579,16 +2585,16 @@
         <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2599,10 +2605,10 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2611,7 +2617,7 @@
         <v>103</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2622,19 +2628,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2645,19 +2651,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2668,16 +2674,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>108</v>
@@ -2691,10 +2697,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>19</v>
@@ -2703,7 +2709,7 @@
         <v>103</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2714,19 +2720,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2737,19 +2743,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2760,19 +2766,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2783,19 +2789,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2806,19 +2812,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2829,19 +2835,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2852,10 +2858,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2864,7 +2870,7 @@
         <v>103</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2875,10 +2881,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2887,7 +2893,7 @@
         <v>103</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2898,10 +2904,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2910,7 +2916,7 @@
         <v>103</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2921,599 +2927,691 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="G129" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="C135" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -386,7 +386,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -484,7 +487,7 @@
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3505,7 +3508,7 @@
         <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>19</v>
@@ -3525,10 +3528,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>19</v>
@@ -3537,7 +3540,7 @@
         <v>93</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3548,10 +3551,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3560,7 +3563,7 @@
         <v>93</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>23</v>
@@ -3571,10 +3574,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>19</v>
@@ -3583,7 +3586,7 @@
         <v>31</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3594,10 +3597,10 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>19</v>
@@ -3606,7 +3609,7 @@
         <v>105</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -387,9 +387,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3508,7 +3505,7 @@
         <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>19</v>
@@ -3528,10 +3525,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>19</v>
@@ -3540,7 +3537,7 @@
         <v>93</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3551,10 +3548,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3563,7 +3560,7 @@
         <v>93</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>23</v>
@@ -3574,10 +3571,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>19</v>
@@ -3586,7 +3583,7 @@
         <v>31</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3597,10 +3594,10 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>19</v>
@@ -3609,7 +3606,7 @@
         <v>105</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3505,7 +3508,7 @@
         <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>19</v>
@@ -3525,10 +3528,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>19</v>
@@ -3537,7 +3540,7 @@
         <v>93</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3548,10 +3551,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3560,7 +3563,7 @@
         <v>93</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>23</v>
@@ -3571,10 +3574,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>19</v>
@@ -3583,7 +3586,7 @@
         <v>31</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3594,10 +3597,10 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>19</v>
@@ -3606,7 +3609,7 @@
         <v>105</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -312,6 +312,36 @@
   </si>
   <si>
     <t>3,18</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -475,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -485,7 +515,7 @@
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.58984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2079,22 +2109,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>33</v>
@@ -2102,22 +2132,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>33</v>
@@ -2125,19 +2155,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2148,22 +2178,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>33</v>
@@ -2171,22 +2201,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>33</v>
@@ -2194,22 +2224,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>33</v>
@@ -2217,19 +2247,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2240,22 +2270,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>33</v>
@@ -2263,19 +2293,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2286,22 +2316,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>33</v>
@@ -2309,22 +2339,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>33</v>
@@ -2332,19 +2362,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2355,22 +2385,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>33</v>
@@ -2378,19 +2408,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2401,22 +2431,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>33</v>
@@ -2424,22 +2454,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>33</v>
@@ -2447,22 +2477,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>33</v>
@@ -2470,19 +2500,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2493,22 +2523,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>33</v>
@@ -2516,22 +2546,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>33</v>
@@ -2539,19 +2569,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2562,22 +2592,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>33</v>
@@ -2585,19 +2615,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2608,22 +2638,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>33</v>
@@ -2631,22 +2661,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>33</v>
@@ -2654,19 +2684,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2677,19 +2707,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2700,19 +2730,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2723,19 +2753,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2746,22 +2776,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>33</v>
@@ -2769,19 +2799,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2792,22 +2822,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>33</v>
@@ -2815,22 +2845,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>33</v>
@@ -2838,19 +2868,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2861,19 +2891,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2884,19 +2914,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2907,19 +2937,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2930,19 +2960,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2953,19 +2983,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2976,16 +3006,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>120</v>
@@ -2999,622 +3029,944 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E136" s="2" t="s">
+      <c r="G140" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
@@ -3196,7 +3196,7 @@
         <v>125</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>115</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -164,6 +164,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -218,13 +224,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -505,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1057,7 +1063,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>46</v>
@@ -1149,7 +1155,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>46</v>
@@ -1264,7 +1270,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>46</v>
@@ -1287,7 +1293,7 @@
         <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>46</v>
@@ -1356,7 +1362,7 @@
         <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>46</v>
@@ -1471,7 +1477,7 @@
         <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>46</v>
@@ -1543,10 +1549,10 @@
         <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1560,13 +1566,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>96</v>
@@ -1580,22 +1586,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>33</v>
@@ -1603,22 +1609,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>33</v>
@@ -1626,19 +1632,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1649,19 +1655,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1678,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1701,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1724,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1741,22 +1747,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>33</v>
@@ -1764,19 +1770,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1787,19 +1793,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>20</v>
@@ -1810,22 +1816,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>33</v>
@@ -1833,22 +1839,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>33</v>
@@ -1856,22 +1862,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>33</v>
@@ -1879,19 +1885,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1902,19 +1908,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1925,19 +1931,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1948,22 +1954,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>33</v>
@@ -1971,19 +1977,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1994,19 +2000,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>20</v>
@@ -2017,22 +2023,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>33</v>
@@ -2040,22 +2046,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>33</v>
@@ -2063,22 +2069,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>33</v>
@@ -2086,19 +2092,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2109,19 +2115,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2132,22 +2138,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>33</v>
@@ -2155,19 +2161,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2178,19 +2184,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>20</v>
@@ -2201,22 +2207,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>33</v>
@@ -2224,22 +2230,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>33</v>
@@ -2247,22 +2253,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>33</v>
@@ -2270,22 +2276,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>33</v>
@@ -2293,19 +2299,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2316,19 +2322,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2339,19 +2345,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2362,19 +2368,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2385,22 +2391,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>33</v>
@@ -2408,19 +2414,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2431,22 +2437,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>33</v>
@@ -2454,19 +2460,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>20</v>
@@ -2477,19 +2483,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2500,22 +2506,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>33</v>
@@ -2523,22 +2529,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>33</v>
@@ -2546,19 +2552,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2569,19 +2575,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2592,22 +2598,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>33</v>
@@ -2615,19 +2621,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2638,22 +2644,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>33</v>
@@ -2661,19 +2667,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>20</v>
@@ -2684,19 +2690,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2707,22 +2713,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2730,22 +2736,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2753,19 +2759,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2776,22 +2782,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>33</v>
@@ -2799,19 +2805,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2822,22 +2828,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>33</v>
@@ -2845,19 +2851,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>20</v>
@@ -2871,7 +2877,7 @@
         <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2880,7 +2886,7 @@
         <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2894,19 +2900,19 @@
         <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>33</v>
@@ -2917,19 +2923,19 @@
         <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>33</v>
@@ -2937,10 +2943,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2949,7 +2955,7 @@
         <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2960,19 +2966,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2983,19 +2989,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3006,16 +3012,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>120</v>
@@ -3029,19 +3035,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3052,19 +3058,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3075,19 +3081,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3098,19 +3104,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3121,19 +3127,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3144,19 +3150,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3167,19 +3173,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3190,19 +3196,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3213,19 +3219,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3236,19 +3242,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3259,19 +3265,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3282,19 +3288,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3305,10 +3311,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3317,7 +3323,7 @@
         <v>115</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3328,10 +3334,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3340,7 +3346,7 @@
         <v>115</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3351,622 +3357,737 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B150" s="2" t="s">
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E150" s="2" t="s">
+      <c r="C154" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -511,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1339,7 +1345,7 @@
         <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>46</v>
@@ -1362,7 +1368,7 @@
         <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>46</v>
@@ -1500,7 +1506,7 @@
         <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>46</v>
@@ -1572,10 +1578,10 @@
         <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1589,13 +1595,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>98</v>
@@ -1609,22 +1615,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>33</v>
@@ -1632,22 +1638,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>33</v>
@@ -1655,19 +1661,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1678,19 +1684,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1701,19 +1707,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1724,19 +1730,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1747,19 +1753,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1770,19 +1776,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1793,22 +1799,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>33</v>
@@ -1816,22 +1822,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>33</v>
@@ -1839,22 +1845,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>33</v>
@@ -1862,19 +1868,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>20</v>
@@ -1885,22 +1891,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>33</v>
@@ -1908,19 +1914,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1931,19 +1937,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1954,22 +1960,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>33</v>
@@ -1977,19 +1983,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2006,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>20</v>
@@ -2023,19 +2029,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2046,19 +2052,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>20</v>
@@ -2069,22 +2075,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>33</v>
@@ -2092,22 +2098,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>33</v>
@@ -2115,22 +2121,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>33</v>
@@ -2138,19 +2144,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2161,19 +2167,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2184,22 +2190,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>33</v>
@@ -2207,19 +2213,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2230,19 +2236,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>20</v>
@@ -2253,22 +2259,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>33</v>
@@ -2276,22 +2282,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>33</v>
@@ -2299,22 +2305,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>33</v>
@@ -2322,22 +2328,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>33</v>
@@ -2345,19 +2351,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2368,19 +2374,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2391,19 +2397,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2414,19 +2420,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2437,19 +2443,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2460,22 +2466,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>33</v>
@@ -2483,19 +2489,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2506,19 +2512,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>20</v>
@@ -2529,22 +2535,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>33</v>
@@ -2552,22 +2558,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>33</v>
@@ -2575,22 +2581,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>33</v>
@@ -2598,19 +2604,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2621,19 +2627,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2644,22 +2650,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>33</v>
@@ -2667,22 +2673,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>33</v>
@@ -2690,22 +2696,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2713,22 +2719,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2736,19 +2742,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>20</v>
@@ -2759,19 +2765,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2782,22 +2788,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>33</v>
@@ -2805,22 +2811,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>33</v>
@@ -2828,19 +2834,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2851,22 +2857,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>33</v>
@@ -2874,19 +2880,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2897,22 +2903,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>33</v>
@@ -2920,19 +2926,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>20</v>
@@ -2946,7 +2952,7 @@
         <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2955,7 +2961,7 @@
         <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2969,19 +2975,19 @@
         <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>33</v>
@@ -2992,19 +2998,19 @@
         <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>33</v>
@@ -3012,10 +3018,10 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3024,7 +3030,7 @@
         <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3035,19 +3041,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3058,19 +3064,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3081,19 +3087,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3104,19 +3110,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3127,10 +3133,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>19</v>
@@ -3139,7 +3145,7 @@
         <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3150,19 +3156,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3173,19 +3179,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3196,19 +3202,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3219,19 +3225,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3242,19 +3248,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3265,19 +3271,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3288,19 +3294,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3311,19 +3317,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3334,19 +3340,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3357,19 +3363,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3380,19 +3386,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3403,10 +3409,10 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3415,7 +3421,7 @@
         <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3426,10 +3432,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3438,7 +3444,7 @@
         <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3449,645 +3455,737 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G151" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B155" s="2" t="s">
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E155" s="2" t="s">
+      <c r="C158" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -517,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1529,7 +1535,7 @@
         <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>46</v>
@@ -1601,10 +1607,10 @@
         <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1618,13 +1624,13 @@
         <v>43</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>100</v>
@@ -1638,22 +1644,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>33</v>
@@ -1661,22 +1667,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>33</v>
@@ -1684,19 +1690,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1707,19 +1713,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1736,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1759,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1782,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1805,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1822,22 +1828,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>33</v>
@@ -1845,22 +1851,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>33</v>
@@ -1868,22 +1874,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>33</v>
@@ -1891,19 +1897,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>20</v>
@@ -1914,22 +1920,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>33</v>
@@ -1937,19 +1943,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1960,22 +1966,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>33</v>
@@ -1983,22 +1989,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>33</v>
@@ -2006,19 +2012,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>20</v>
@@ -2029,19 +2035,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2058,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>20</v>
@@ -2075,19 +2081,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2098,19 +2104,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>20</v>
@@ -2121,22 +2127,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>33</v>
@@ -2144,22 +2150,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>33</v>
@@ -2167,22 +2173,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>33</v>
@@ -2190,19 +2196,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2213,19 +2219,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2236,22 +2242,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>33</v>
@@ -2259,19 +2265,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2288,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>20</v>
@@ -2305,22 +2311,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>33</v>
@@ -2328,22 +2334,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>33</v>
@@ -2351,22 +2357,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>33</v>
@@ -2374,22 +2380,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>33</v>
@@ -2397,19 +2403,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2420,19 +2426,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2443,19 +2449,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2472,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2495,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2512,22 +2518,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>33</v>
@@ -2535,19 +2541,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2558,19 +2564,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>20</v>
@@ -2581,22 +2587,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>33</v>
@@ -2604,22 +2610,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>33</v>
@@ -2627,22 +2633,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>33</v>
@@ -2650,22 +2656,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>33</v>
@@ -2673,19 +2679,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2702,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>20</v>
@@ -2719,22 +2725,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2742,22 +2748,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2765,22 +2771,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>33</v>
@@ -2788,22 +2794,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>33</v>
@@ -2811,19 +2817,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>20</v>
@@ -2834,19 +2840,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2857,22 +2863,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>33</v>
@@ -2880,22 +2886,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -2903,19 +2909,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2926,22 +2932,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>33</v>
@@ -2949,19 +2955,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2972,22 +2978,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>33</v>
@@ -2995,19 +3001,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>20</v>
@@ -3021,7 +3027,7 @@
         <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3030,7 +3036,7 @@
         <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3044,19 +3050,19 @@
         <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>33</v>
@@ -3067,19 +3073,19 @@
         <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>33</v>
@@ -3087,10 +3093,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3099,7 +3105,7 @@
         <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3110,19 +3116,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3133,19 +3139,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3156,19 +3162,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3179,19 +3185,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3202,10 +3208,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>19</v>
@@ -3214,7 +3220,7 @@
         <v>119</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3225,19 +3231,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3248,19 +3254,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3271,19 +3277,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3294,19 +3300,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3317,19 +3323,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3340,19 +3346,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3363,19 +3369,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3386,19 +3392,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3409,19 +3415,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3432,19 +3438,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3455,19 +3461,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3478,10 +3484,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3490,7 +3496,7 @@
         <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3501,10 +3507,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3513,7 +3519,7 @@
         <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3524,668 +3530,760 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F155" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G155" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B159" s="2" t="s">
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E159" s="2" t="s">
+      <c r="C162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
@@ -1328,7 +1328,7 @@
         <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>46</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
@@ -3881,7 +3881,7 @@
         <v>70</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>138</v>
@@ -3904,7 +3904,7 @@
         <v>72</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>138</v>
@@ -3913,7 +3913,7 @@
         <v>73</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>140</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_115.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -174,6 +174,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -523,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1121,7 +1133,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>46</v>
@@ -1144,7 +1156,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>46</v>
@@ -1190,7 +1202,7 @@
         <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>46</v>
@@ -1213,7 +1225,7 @@
         <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>46</v>
@@ -1558,7 +1570,7 @@
         <v>92</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>46</v>
@@ -1581,7 +1593,7 @@
         <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>46</v>
@@ -1630,10 +1642,10 @@
         <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1647,16 +1659,16 @@
         <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1667,22 +1679,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>33</v>
@@ -1690,19 +1702,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1713,22 +1725,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>33</v>
@@ -1736,19 +1748,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1771,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1794,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1817,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1828,22 +1840,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>33</v>
@@ -1851,22 +1863,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>33</v>
@@ -1874,19 +1886,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1897,22 +1909,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>33</v>
@@ -1920,22 +1932,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>33</v>
@@ -1943,22 +1955,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>33</v>
@@ -1966,19 +1978,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1989,19 +2001,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>20</v>
@@ -2012,19 +2024,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>20</v>
@@ -2035,19 +2047,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2058,22 +2070,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>33</v>
@@ -2081,22 +2093,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>33</v>
@@ -2104,19 +2116,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>20</v>
@@ -2127,19 +2139,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2162,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>20</v>
@@ -2173,22 +2185,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>33</v>
@@ -2196,22 +2208,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>33</v>
@@ -2219,19 +2231,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2242,22 +2254,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>33</v>
@@ -2265,22 +2277,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>33</v>
@@ -2288,22 +2300,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>33</v>
@@ -2311,19 +2323,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2334,22 +2346,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>33</v>
@@ -2357,22 +2369,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>33</v>
@@ -2380,22 +2392,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>33</v>
@@ -2403,19 +2415,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2426,22 +2438,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>33</v>
@@ -2449,22 +2461,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>33</v>
@@ -2472,22 +2484,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>33</v>
@@ -2495,19 +2507,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2518,19 +2530,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2541,19 +2553,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2564,22 +2576,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>33</v>
@@ -2587,22 +2599,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>33</v>
@@ -2610,22 +2622,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>33</v>
@@ -2633,22 +2645,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>33</v>
@@ -2656,19 +2668,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2679,19 +2691,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2702,19 +2714,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>20</v>
@@ -2725,22 +2737,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2748,22 +2760,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2771,19 +2783,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>20</v>
@@ -2794,19 +2806,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2817,22 +2829,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>33</v>
@@ -2840,22 +2852,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>33</v>
@@ -2863,19 +2875,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>20</v>
@@ -2886,22 +2898,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -2909,22 +2921,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>33</v>
@@ -2932,19 +2944,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2955,22 +2967,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>33</v>
@@ -2978,19 +2990,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3001,19 +3013,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>20</v>
@@ -3024,22 +3036,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>33</v>
@@ -3047,22 +3059,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>33</v>
@@ -3070,22 +3082,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>33</v>
@@ -3093,19 +3105,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3116,19 +3128,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3139,10 +3151,10 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3151,10 +3163,10 @@
         <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>33</v>
@@ -3162,10 +3174,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3174,7 +3186,7 @@
         <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3185,22 +3197,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>33</v>
@@ -3208,22 +3220,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>33</v>
@@ -3231,19 +3243,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3254,19 +3266,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3277,19 +3289,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3300,19 +3312,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3323,19 +3335,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3346,19 +3358,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3369,19 +3381,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3392,19 +3404,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3415,19 +3427,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3438,19 +3450,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3461,19 +3473,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3484,19 +3496,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3507,19 +3519,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3530,19 +3542,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3553,19 +3565,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3576,16 +3588,16 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>136</v>
@@ -3599,691 +3611,875 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C138" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E160" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E162" s="2" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="E163" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E163" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
+      <c r="F169" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>33</v>
       </c>
     </row>
